--- a/uml2es/examples/hrexcel/test1.xlsx
+++ b/uml2es/examples/hrexcel/test1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>Property 3</t>
-  </si>
-  <si>
-    <t>prop1, "hi"</t>
   </si>
   <si>
     <t>rangeIndex</t>
@@ -449,6 +446,14 @@
   </si>
   <si>
     <t>MyNewModel</t>
+  </si>
+  <si>
+    <t>"here is"
+prop1</t>
+  </si>
+  <si>
+    <t>prop1
+"hi"</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1038,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1051,7 +1056,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1135,8 +1140,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1190,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1198,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.2">
@@ -1363,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1380,7 +1385,7 @@
         <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s">
         <v>56</v>
@@ -1388,8 +1393,8 @@
       <c r="L21" t="s">
         <v>56</v>
       </c>
-      <c r="Q21" t="s">
-        <v>57</v>
+      <c r="Q21" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
@@ -1415,20 +1420,22 @@
         <v>65</v>
       </c>
       <c r="R23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>-800</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -1483,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1712,7 +1719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="26" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
@@ -1734,8 +1741,8 @@
       <c r="G22" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" t="s">
-        <v>73</v>
+      <c r="Q22" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
@@ -2034,19 +2041,19 @@
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" s="26" t="s">
+      <c r="P22" t="s">
         <v>76</v>
-      </c>
-      <c r="P22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">

--- a/uml2es/examples/hrexcel/test1.xlsx
+++ b/uml2es/examples/hrexcel/test1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Entity1" sheetId="2" r:id="rId3"/>
     <sheet name="EntityA" sheetId="10" r:id="rId4"/>
     <sheet name="Entity2" sheetId="8" r:id="rId5"/>
+    <sheet name="EntityNop" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -189,8 +190,61 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mike Havey</author>
+  </authors>
+  <commentList>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>An ML type (see http://docs.marklogic.com/guide/entity-services/models#id_49142)
+Or the na me of an entity in this model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>0 - optional
+1 - required
+* - array optional
++ - array required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>range, path, lexicon</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="86">
   <si>
     <t>Description</t>
   </si>
@@ -454,6 +508,9 @@
   <si>
     <t>prop1
 "hi"</t>
+  </si>
+  <si>
+    <t>EntityNop</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -2112,4 +2169,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="18" max="18" width="27.33203125" customWidth="1"/>
+    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="22"/>
+    </row>
+    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C25"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/uml2es/examples/hrexcel/test1.xlsx
+++ b/uml2es/examples/hrexcel/test1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhavey/Documents/mike/dev/mbo_modeling/fy18q3/marklogic/uml2es/examples/hrexcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhavey/Documents/mike/dev/mbo_modeling/fy18q4/marklogic/uml2es/examples/hrexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>Description</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t>SEM Property (predicate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range Index Type </t>
   </si>
   <si>
     <t>Cacluated By Concatenating The Following - linebreaks between</t>
@@ -467,9 +464,6 @@
   </si>
   <si>
     <t>Property 3</t>
-  </si>
-  <si>
-    <t>rangeIndex</t>
   </si>
   <si>
     <t>DUH</t>
@@ -511,6 +505,30 @@
   </si>
   <si>
     <t>EntityNop</t>
+  </si>
+  <si>
+    <t>SEM Prefixes P, U (linebreaks between)</t>
+  </si>
+  <si>
+    <t>xyz,http://xyz.org/stuff#</t>
+  </si>
+  <si>
+    <t>Semantic Facts - s,P,O linebreaks between</t>
+  </si>
+  <si>
+    <t>PII (Y/N)</t>
+  </si>
+  <si>
+    <t>Elem Range Idx (Y/N)</t>
+  </si>
+  <si>
+    <t>Path Range Idx (Y/N)</t>
+  </si>
+  <si>
+    <t>Word Lex (Y/N)</t>
+  </si>
+  <si>
+    <t>SEM Qualified Object s, P, O (linebreaks between)</t>
   </si>
 </sst>
 </file>
@@ -568,7 +586,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,8 +629,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -648,12 +672,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -700,6 +735,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1062,27 +1099,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1093,10 +1130,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1113,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1121,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1129,7 +1166,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1137,7 +1174,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1145,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1153,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.2">
@@ -1161,7 +1198,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.2">
@@ -1169,16 +1206,24 @@
         <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1195,10 +1240,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1209,18 +1254,22 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1228,7 +1277,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1236,7 +1285,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1244,7 +1293,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1252,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1260,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.2">
@@ -1268,271 +1317,286 @@
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14">
-        <v>4</v>
-      </c>
+      <c r="A7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="26" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="26" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" ht="39" x14ac:dyDescent="0.15">
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" ht="39" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R23" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
         <v>-800</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C28"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C29"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
@@ -1545,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1559,18 +1623,22 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1578,7 +1646,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1592,7 +1660,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1614,231 +1682,249 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14">
-        <v>4</v>
-      </c>
+      <c r="A7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="2">
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="26" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="26" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U23" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C26"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C27"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1848,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1862,18 +1948,22 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1881,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1889,7 +1979,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1915,256 +2005,274 @@
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>50</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" t="s">
         <v>56</v>
       </c>
-      <c r="K21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q21" t="s">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C28"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C29"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M22" r:id="rId1"/>
+    <hyperlink ref="P23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -2173,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD22"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2187,18 +2295,22 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2206,7 +2318,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2240,181 +2352,199 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C25"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C26"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/uml2es/examples/hrexcel/test1.xlsx
+++ b/uml2es/examples/hrexcel/test1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -379,10 +379,6 @@
 Model reminder 2</t>
   </si>
   <si>
-    <t>modelpred1,modelobj1
-modelpred2,modelobj2</t>
-  </si>
-  <si>
     <t>EntityX</t>
   </si>
   <si>
@@ -529,6 +525,10 @@
   </si>
   <si>
     <t>SEM Qualified Object s, P, O (linebreaks between)</t>
+  </si>
+  <si>
+    <t>xyz:modelpred1,"""modelobj1"""
+xyz:modelpred2,2</t>
   </si>
 </sst>
 </file>
@@ -1099,27 +1099,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1150,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1206,15 +1206,15 @@
         <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1242,8 +1242,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q1:Q1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1277,7 +1277,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1285,7 +1285,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1293,7 +1293,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.2">
@@ -1317,12 +1317,12 @@
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="13"/>
     </row>
@@ -1339,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>30</v>
@@ -1424,19 +1424,19 @@
         <v>6</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>8</v>
@@ -1454,7 +1454,7 @@
         <v>35</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>12</v>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1494,33 +1494,33 @@
     </row>
     <row r="22" spans="1:23" ht="26" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1528,35 +1528,35 @@
     </row>
     <row r="24" spans="1:23" ht="39" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
         <v>-800</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
@@ -1611,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
@@ -1646,7 +1646,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1683,7 +1683,7 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="13"/>
     </row>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>30</v>
@@ -1777,19 +1777,19 @@
         <v>6</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>8</v>
@@ -1807,7 +1807,7 @@
         <v>35</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>12</v>
@@ -1830,62 +1830,62 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="26" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
@@ -1937,7 +1937,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1971,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2005,12 +2005,12 @@
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="13"/>
     </row>
@@ -2025,7 +2025,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>30</v>
@@ -2104,19 +2104,19 @@
         <v>6</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>8</v>
@@ -2134,7 +2134,7 @@
         <v>35</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>12</v>
@@ -2157,13 +2157,13 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2174,51 +2174,51 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="H22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" t="s">
         <v>55</v>
-      </c>
-      <c r="N22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" s="26" t="s">
+      <c r="T23" t="s">
         <v>73</v>
-      </c>
-      <c r="T23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
@@ -2283,7 +2283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -2318,7 +2318,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2353,7 +2353,7 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="13"/>
     </row>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>30</v>
@@ -2445,19 +2445,19 @@
         <v>6</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>8</v>
@@ -2475,7 +2475,7 @@
         <v>35</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>12</v>
